--- a/data/formularios/FormularioDAPLerochekit.xlsx
+++ b/data/formularios/FormularioDAPLerochekit.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive1\Haiti_DR_Woodfuel_Mapping2016\FieldWork_SepOct2019\Plots\Hinche\Lerochekit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978991D-9ED0-4B5F-B7F4-E10FF932921D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$P$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -147,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -261,42 +260,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -304,23 +303,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -335,7 +334,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -349,7 +348,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -382,24 +381,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -413,12 +394,27 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,7 +524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,78 +749,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.5" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="5"/>
+    <col min="21" max="21" width="14.1640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="25">
         <v>43766</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -836,21 +832,21 @@
       <c r="Q3" s="16"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28">
       <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -884,7 +880,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -902,7 +898,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -932,7 +928,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -948,30 +944,30 @@
       <c r="R8"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -983,16 +979,16 @@
       <c r="R9"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1006,7 +1002,7 @@
       <c r="R10"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1035,7 @@
       <c r="R11"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1068,7 @@
       <c r="R12"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1101,7 @@
       <c r="R13"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
@@ -1138,7 +1134,7 @@
       <c r="R14"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1167,7 @@
       <c r="R15"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1200,7 @@
       <c r="R16"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
@@ -1237,7 +1233,7 @@
       <c r="R17"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1266,7 @@
       <c r="R18"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1299,7 @@
       <c r="R19"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1332,7 @@
       <c r="R20"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1365,7 @@
       <c r="R21"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="21" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1398,7 @@
       <c r="R22"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1431,7 @@
       <c r="R23"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
@@ -1468,7 +1464,7 @@
       <c r="R24"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1497,7 @@
       <c r="R25"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="21" t="s">
         <v>23</v>
       </c>
@@ -1534,7 +1530,7 @@
       <c r="R26"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="21" t="s">
         <v>23</v>
       </c>
@@ -1567,7 +1563,7 @@
       <c r="R27"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="21" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1596,7 @@
       <c r="R28"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="21" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1629,7 @@
       <c r="R29"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1659,7 @@
       <c r="R30"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="21" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1692,7 @@
       <c r="R31"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="21" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1725,7 @@
       <c r="R32"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="21" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1758,7 @@
       <c r="R33"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="21" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1791,7 @@
       <c r="R34"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="21" t="s">
         <v>23</v>
       </c>
@@ -1828,7 +1824,7 @@
       <c r="R35"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="21" t="s">
         <v>23</v>
       </c>
@@ -1861,7 +1857,7 @@
       <c r="R36"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="21" t="s">
         <v>23</v>
       </c>
@@ -1894,7 +1890,7 @@
       <c r="R37"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="21" t="s">
         <v>23</v>
       </c>
@@ -1927,7 +1923,7 @@
       <c r="R38"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="21" t="s">
         <v>23</v>
       </c>
@@ -1960,7 +1956,7 @@
       <c r="R39"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="21" t="s">
         <v>23</v>
       </c>
@@ -1987,180 +1983,164 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
-      <c r="N41"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
-      <c r="N43"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
@@ -2170,15 +2150,15 @@
       <c r="P49" s="15"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -2188,15 +2168,15 @@
       <c r="P50" s="15"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
@@ -2206,408 +2186,142 @@
       <c r="P51" s="15"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
+    <row r="52" spans="2:19">
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+    <row r="53" spans="2:19">
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
+    <row r="54" spans="2:19">
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
+    <row r="55" spans="2:19">
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+    <row r="56" spans="2:19">
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
+    <row r="57" spans="2:19">
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="S58" s="7"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
+    <row r="59" spans="2:19">
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
+    <row r="60" spans="2:19">
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
+    <row r="61" spans="2:19">
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
+    <row r="62" spans="2:19">
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
+    <row r="63" spans="2:19">
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
+    <row r="64" spans="2:19">
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
+    <row r="65" spans="19:19">
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+    <row r="66" spans="19:19">
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="19:19">
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="19:19">
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="19:19">
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="19:19">
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="19:19">
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="19:19">
       <c r="S72" s="7"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="19:19">
+      <c r="S73" s="7"/>
+    </row>
+    <row r="74" spans="19:19">
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="19:19">
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="19:19">
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="19:19">
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="19:19">
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="19:19">
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S80" s="7"/>
-    </row>
-    <row r="81" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="19:19">
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="19:19">
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="19:19">
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="19:19">
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="19:19">
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="19:19">
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="19:19">
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="19:19">
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="19:19">
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="19:19">
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="19:19">
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="19:19">
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="19:19">
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="19:19">
       <c r="S94" s="7"/>
     </row>
-    <row r="96" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="19:19">
+      <c r="S95" s="7"/>
+    </row>
+    <row r="96" spans="19:19">
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S97" s="7"/>
-    </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S98" s="7"/>
-    </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S99" s="7"/>
-    </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S100" s="7"/>
-    </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S101" s="7"/>
-    </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S102" s="7"/>
-    </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S103" s="7"/>
-    </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S104" s="7"/>
-    </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S105" s="7"/>
-    </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S106" s="7"/>
-    </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S107" s="7"/>
-    </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S108" s="7"/>
-    </row>
-    <row r="109" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S109" s="7"/>
-    </row>
-    <row r="110" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S110" s="7"/>
-    </row>
-    <row r="111" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S111" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="O43:Q43"/>
+  <mergeCells count="14">
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C3:F3"/>
@@ -2615,56 +2329,48 @@
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>